--- a/raw-data/All Treatments/aroostook_raw_2024.xlsx
+++ b/raw-data/All Treatments/aroostook_raw_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/All Treatments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EDFE9B-6E45-B24C-9B05-523FF8F19588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239E493E-C2C6-1744-918D-378E85B89E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="-18680" windowWidth="27640" windowHeight="16940" xr2:uid="{9E1AFA91-D57E-DB4D-82DC-90EA907FBF81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>CU_B1_P405</t>
+  </si>
+  <si>
+    <t>100_seed_weight</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDC9FA1-A441-7C4A-9FEB-058E459468FB}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,7 +600,7 @@
     <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,8 +640,11 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -678,8 +684,11 @@
       <c r="M2" s="6">
         <v>612</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>19.122500000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -719,8 +728,11 @@
       <c r="M3" s="6">
         <v>790</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -760,8 +772,11 @@
       <c r="M4" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -801,8 +816,11 @@
       <c r="M5" s="6">
         <v>660</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>18.2425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -842,8 +860,11 @@
       <c r="M6" s="6">
         <v>624</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>17.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -883,8 +904,11 @@
       <c r="M7" s="6">
         <v>670</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -924,8 +948,11 @@
       <c r="M8" s="6">
         <v>638</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>18.704999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -965,8 +992,11 @@
       <c r="M9" s="6">
         <v>646</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>17.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1006,8 +1036,11 @@
       <c r="M10" s="6">
         <v>662</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>18.942499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1047,8 +1080,11 @@
       <c r="M11" s="6">
         <v>644</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>18.369999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1088,8 +1124,11 @@
       <c r="M12" s="6">
         <v>588</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>17.094999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1129,8 +1168,11 @@
       <c r="M13" s="6">
         <v>676</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>19.395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1170,8 +1212,11 @@
       <c r="M14" s="6">
         <v>672</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>19.012499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -1211,8 +1256,11 @@
       <c r="M15" s="6">
         <v>604</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>19.022500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1252,8 +1300,11 @@
       <c r="M16" s="6">
         <v>586</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>17.952500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -1293,8 +1344,11 @@
       <c r="M17" s="6">
         <v>534</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>18.0975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -1334,8 +1388,11 @@
       <c r="M18" s="6">
         <v>548</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>18.079999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
@@ -1375,8 +1432,11 @@
       <c r="M19" s="6">
         <v>586</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>18.052500000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1416,8 +1476,11 @@
       <c r="M20" s="6">
         <v>678</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>18.952500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
@@ -1456,6 +1519,9 @@
       </c>
       <c r="M21">
         <v>660</v>
+      </c>
+      <c r="N21">
+        <v>18.532499999999999</v>
       </c>
     </row>
   </sheetData>
